--- a/Results_NN_CER_e5_3.xlsx
+++ b/Results_NN_CER_e5_3.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,19 +411,172 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.741996233521657</v>
+        <v>0.6365348399246703</v>
       </c>
       <c r="B2">
-        <v>-0.08585113725239157</v>
+        <v>-0.09755573890674291</v>
       </c>
       <c r="C2">
-        <v>1.306316730412052</v>
+        <v>1.265236745836396</v>
       </c>
       <c r="D2">
-        <v>74.61460452934915</v>
+        <v>79.97809575009002</v>
       </c>
       <c r="E2">
         <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.5800376647834276</v>
+      </c>
+      <c r="B3">
+        <v>-0.1022210320797226</v>
+      </c>
+      <c r="C3">
+        <v>1.250546764128259</v>
+      </c>
+      <c r="D3">
+        <v>85.11606061761917</v>
+      </c>
+      <c r="E3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.6741996233521658</v>
+      </c>
+      <c r="B4">
+        <v>-0.08841025268009126</v>
+      </c>
+      <c r="C4">
+        <v>1.296759219083149</v>
+      </c>
+      <c r="D4">
+        <v>81.09730603286458</v>
+      </c>
+      <c r="E4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.6817325800376648</v>
+      </c>
+      <c r="B5">
+        <v>-0.0912354851638441</v>
+      </c>
+      <c r="C5">
+        <v>1.286601506857359</v>
+      </c>
+      <c r="D5">
+        <v>82.43616493388397</v>
+      </c>
+      <c r="E5">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="B6">
+        <v>-0.09260297323145225</v>
+      </c>
+      <c r="C6">
+        <v>1.281825094057883</v>
+      </c>
+      <c r="D6">
+        <v>83.77175761693275</v>
+      </c>
+      <c r="E6">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.7325800376647833</v>
+      </c>
+      <c r="B7">
+        <v>-0.08883071987763477</v>
+      </c>
+      <c r="C7">
+        <v>1.295221982837746</v>
+      </c>
+      <c r="D7">
+        <v>77.29556379155632</v>
+      </c>
+      <c r="E7">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.5913370998116761</v>
+      </c>
+      <c r="B8">
+        <v>-0.09847449947013515</v>
+      </c>
+      <c r="C8">
+        <v>1.262275220260086</v>
+      </c>
+      <c r="D8">
+        <v>82.42983365770611</v>
+      </c>
+      <c r="E8">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.6120527306967984</v>
+      </c>
+      <c r="B9">
+        <v>-0.1019289329170178</v>
+      </c>
+      <c r="C9">
+        <v>1.251441730252632</v>
+      </c>
+      <c r="D9">
+        <v>81.31823583026539</v>
+      </c>
+      <c r="E9">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.6949152542372883</v>
+      </c>
+      <c r="B10">
+        <v>-0.09067978156447758</v>
+      </c>
+      <c r="C10">
+        <v>1.288568130158164</v>
+      </c>
+      <c r="D10">
+        <v>86.4536846651706</v>
+      </c>
+      <c r="E10">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>0.64030131826742</v>
+      </c>
+      <c r="B11">
+        <v>-0.09372221805834519</v>
+      </c>
+      <c r="C11">
+        <v>1.277980898457898</v>
+      </c>
+      <c r="D11">
+        <v>81.0902679802048</v>
+      </c>
+      <c r="E11">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
